--- a/report/test_result/report.xlsx
+++ b/report/test_result/report.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>No.</t>
   </si>
@@ -35,15 +35,6 @@
     <t>Request Data</t>
   </si>
   <si>
-    <t>params</t>
-  </si>
-  <si>
-    <t>headers</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
     <t>Encryption</t>
   </si>
   <si>
@@ -71,49 +62,55 @@
     <t>exception</t>
   </si>
   <si>
-    <t>注册</t>
-  </si>
-  <si>
-    <t>http://shop.999.com.cn/999shop/setAction</t>
+    <t>获取豆瓣电影</t>
+  </si>
+  <si>
+    <t>https://movie.douban.com/j/search_tags</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>Json</t>
+  </si>
+  <si>
+    <t>{'type':'movie','source':}</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>0.241514</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>{'tags': ['热门', '最新', '经典', '可播放', '豆瓣高分', '冷门佳片', '华语', '欧美', '韩国', '日本', '动作', '喜剧', '爱情', '科幻', '悬疑', '恐怖', '文艺']}</t>
+  </si>
+  <si>
+    <t>POST无参数</t>
+  </si>
+  <si>
+    <t>https://httpbin.org/post</t>
   </si>
   <si>
     <t>POST</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>{
- "platformcode": "31Meeting",
- "openid": "o4hoAt7ZCSuFuG1Knk-E7_WZ1Cu0",
- "unionid": "oQTVut7LH053JZdVJUdGwA5dwGM0",
- "actioncode": "meetingsignin",
- "memo": {
-  "id": 425386011,
-  "title": "9999999999999999",
-  "category": "其他",
-  "thumb": "http://file.31huiyi.com/Uploads/neweventLogos/504.jpg",
-  "startDate": "2018-07-13",
-  "endDate": "2018-07-13",
-  "address": "",
-  "url": "https://event.3188.la425386011",
-  "attendTime": "2018-06-15T13:29:02.585482+08:00"
- }</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>0.025566</t>
-  </si>
-  <si>
-    <t>uncheckpoint</t>
-  </si>
-  <si>
-    <t>{'errcode': '41199', 'errmsg': 'format error'}</t>
+    <t>183.234.57.139</t>
+  </si>
+  <si>
+    <t>1.031928</t>
+  </si>
+  <si>
+    <t>{'args': {}, 'data': '', 'files': {}, 'form': {}, 'headers': {'Accept': '*/*', 'Accept-Encoding': 'gzip, deflate', 'Connection': 'close', 'Content-Length': '0', 'Host': 'httpbin.org', 'User-Agent': 'python-requests/2.19.1'}, 'json': None, 'origin': '183.234.57.139', 'url': 'https://httpbin.org/post'}</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +454,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,40 +500,37 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:15">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>23</v>
-      </c>
-      <c r="K2" t="n">
-        <v>200</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
@@ -544,12 +538,35 @@
       <c r="N2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" t="s"/>
-      <c r="P2" t="s">
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="C3" t="s">
         <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/report/test_result/report.xlsx
+++ b/report/test_result/report.xlsx
@@ -86,7 +86,7 @@
     <t>200</t>
   </si>
   <si>
-    <t>0.241514</t>
+    <t>0.199334</t>
   </si>
   <si>
     <t>pass</t>
@@ -107,7 +107,7 @@
     <t>183.234.57.139</t>
   </si>
   <si>
-    <t>1.031928</t>
+    <t>0.943009</t>
   </si>
   <si>
     <t>{'args': {}, 'data': '', 'files': {}, 'form': {}, 'headers': {'Accept': '*/*', 'Accept-Encoding': 'gzip, deflate', 'Connection': 'close', 'Content-Length': '0', 'Host': 'httpbin.org', 'User-Agent': 'python-requests/2.19.1'}, 'json': None, 'origin': '183.234.57.139', 'url': 'https://httpbin.org/post'}</t>

--- a/report/test_result/report.xlsx
+++ b/report/test_result/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>No.</t>
   </si>
@@ -86,13 +86,13 @@
     <t>200</t>
   </si>
   <si>
-    <t>0.199334</t>
+    <t>0.270588</t>
   </si>
   <si>
     <t>pass</t>
   </si>
   <si>
-    <t>{'tags': ['热门', '最新', '经典', '可播放', '豆瓣高分', '冷门佳片', '华语', '欧美', '韩国', '日本', '动作', '喜剧', '爱情', '科幻', '悬疑', '恐怖', '文艺']}</t>
+    <t>{'tags': ['热门', '最新', '经典', '可播放', '豆瓣高分', '冷门佳片', '华语', '欧美', '韩国', '日本', '动作', '喜剧', '爱情', '科幻', '悬疑', '恐怖', '成长']}</t>
   </si>
   <si>
     <t>POST无参数</t>
@@ -107,10 +107,13 @@
     <t>183.234.57.139</t>
   </si>
   <si>
-    <t>0.943009</t>
-  </si>
-  <si>
-    <t>{'args': {}, 'data': '', 'files': {}, 'form': {}, 'headers': {'Accept': '*/*', 'Accept-Encoding': 'gzip, deflate', 'Connection': 'close', 'Content-Length': '0', 'Host': 'httpbin.org', 'User-Agent': 'python-requests/2.19.1'}, 'json': None, 'origin': '183.234.57.139', 'url': 'https://httpbin.org/post'}</t>
+    <t>0.956441</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>{'args': {}, 'data': '', 'files': {}, 'form': {}, 'headers': {'Accept': '*/*', 'Accept-Encoding': 'gzip, deflate', 'Connection': 'close', 'Content-Length': '0', 'Host': 'httpbin.org', 'User-Agent': 'python-requests/2.19.1'}, 'json': None, 'origin': '218.19.99.145', 'url': 'https://httpbin.org/post'}</t>
   </si>
 </sst>
 </file>
@@ -563,10 +566,10 @@
       </c>
       <c r="L3" t="s"/>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/report/test_result/report.xlsx
+++ b/report/test_result/report.xlsx
@@ -86,13 +86,13 @@
     <t>200</t>
   </si>
   <si>
-    <t>0.270588</t>
+    <t>0.404781</t>
   </si>
   <si>
     <t>pass</t>
   </si>
   <si>
-    <t>{'tags': ['热门', '最新', '经典', '可播放', '豆瓣高分', '冷门佳片', '华语', '欧美', '韩国', '日本', '动作', '喜剧', '爱情', '科幻', '悬疑', '恐怖', '成长']}</t>
+    <t>{'tags': ['热门', '最新', '经典', '可播放', '豆瓣高分', '冷门佳片', '华语', '欧美', '韩国', '日本', '动作', '喜剧', '爱情', '科幻', '悬疑', '恐怖', '治愈']}</t>
   </si>
   <si>
     <t>POST无参数</t>
@@ -107,13 +107,13 @@
     <t>183.234.57.139</t>
   </si>
   <si>
-    <t>0.956441</t>
+    <t>1.14152</t>
   </si>
   <si>
     <t>fail</t>
   </si>
   <si>
-    <t>{'args': {}, 'data': '', 'files': {}, 'form': {}, 'headers': {'Accept': '*/*', 'Accept-Encoding': 'gzip, deflate', 'Connection': 'close', 'Content-Length': '0', 'Host': 'httpbin.org', 'User-Agent': 'python-requests/2.19.1'}, 'json': None, 'origin': '218.19.99.145', 'url': 'https://httpbin.org/post'}</t>
+    <t>{'args': {}, 'data': '', 'files': {}, 'form': {}, 'headers': {'Accept': '*/*', 'Accept-Encoding': 'gzip, deflate', 'Connection': 'close', 'Content-Length': '0', 'Host': 'httpbin.org', 'User-Agent': 'python-requests/2.19.1'}, 'json': None, 'origin': '119.145.82.139', 'url': 'https://httpbin.org/post'}</t>
   </si>
 </sst>
 </file>

--- a/report/test_result/report.xlsx
+++ b/report/test_result/report.xlsx
@@ -86,13 +86,13 @@
     <t>200</t>
   </si>
   <si>
-    <t>0.404781</t>
+    <t>1.661493</t>
   </si>
   <si>
     <t>pass</t>
   </si>
   <si>
-    <t>{'tags': ['热门', '最新', '经典', '可播放', '豆瓣高分', '冷门佳片', '华语', '欧美', '韩国', '日本', '动作', '喜剧', '爱情', '科幻', '悬疑', '恐怖', '治愈']}</t>
+    <t>{'tags': ['热门', '最新', '经典', '可播放', '豆瓣高分', '冷门佳片', '华语', '欧美', '韩国', '日本', '动作', '喜剧', '爱情', '科幻', '悬疑', '恐怖', '文艺']}</t>
   </si>
   <si>
     <t>POST无参数</t>
@@ -107,13 +107,13 @@
     <t>183.234.57.139</t>
   </si>
   <si>
-    <t>1.14152</t>
+    <t>0.877114</t>
   </si>
   <si>
     <t>fail</t>
   </si>
   <si>
-    <t>{'args': {}, 'data': '', 'files': {}, 'form': {}, 'headers': {'Accept': '*/*', 'Accept-Encoding': 'gzip, deflate', 'Connection': 'close', 'Content-Length': '0', 'Host': 'httpbin.org', 'User-Agent': 'python-requests/2.19.1'}, 'json': None, 'origin': '119.145.82.139', 'url': 'https://httpbin.org/post'}</t>
+    <t>{'args': {}, 'data': '', 'files': {}, 'form': {}, 'headers': {'Accept': '*/*', 'Accept-Encoding': 'gzip, deflate', 'Connection': 'close', 'Content-Length': '0', 'Host': 'httpbin.org', 'User-Agent': 'python-requests/2.19.1'}, 'json': None, 'origin': '103.219.194.117', 'url': 'https://httpbin.org/post'}</t>
   </si>
 </sst>
 </file>

--- a/report/test_result/report.xlsx
+++ b/report/test_result/report.xlsx
@@ -86,13 +86,13 @@
     <t>200</t>
   </si>
   <si>
-    <t>1.661493</t>
+    <t>1.508702</t>
   </si>
   <si>
     <t>pass</t>
   </si>
   <si>
-    <t>{'tags': ['热门', '最新', '经典', '可播放', '豆瓣高分', '冷门佳片', '华语', '欧美', '韩国', '日本', '动作', '喜剧', '爱情', '科幻', '悬疑', '恐怖', '文艺']}</t>
+    <t>{'tags': ['热门', '最新', '经典', '可播放', '豆瓣高分', '冷门佳片', '华语', '欧美', '韩国', '日本', '动作', '喜剧', '爱情', '科幻', '悬疑', '恐怖', '治愈']}</t>
   </si>
   <si>
     <t>POST无参数</t>
@@ -107,7 +107,7 @@
     <t>183.234.57.139</t>
   </si>
   <si>
-    <t>0.877114</t>
+    <t>1.990882</t>
   </si>
   <si>
     <t>fail</t>
